--- a/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(90+).xlsx
+++ b/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(90+).xlsx
@@ -616,7 +616,7 @@
     <t>521.0 (±91.0)</t>
   </si>
   <si>
-    <t>1205.2 (±199.2)</t>
+    <t>1204.2 (±199.2)</t>
   </si>
   <si>
     <t>267.0 (±87.0)</t>
@@ -784,7 +784,7 @@
     <t>9577.2(±1672.8)</t>
   </si>
   <si>
-    <t>7637.0(±1262.3)</t>
+    <t>7630.7(±1262.3)</t>
   </si>
   <si>
     <t>1047.3(±341.3)</t>
@@ -955,7 +955,7 @@
     <t>1464.4 (±197.7)</t>
   </si>
   <si>
-    <t>3947.8 (±626.8)</t>
+    <t>3946.8 (±626.8)</t>
   </si>
   <si>
     <t>340.6 (±132.0)</t>
@@ -1123,7 +1123,7 @@
     <t>6539.3(±882.8)</t>
   </si>
   <si>
-    <t>6418.5(±1019.0)</t>
+    <t>6416.8(±1019.1)</t>
   </si>
   <si>
     <t>379.7(±147.2)</t>
@@ -4234,7 +4234,7 @@
         <v>3589</v>
       </c>
       <c r="H6">
-        <v>4496</v>
+        <v>4495</v>
       </c>
       <c r="I6">
         <v>3290.8</v>
@@ -4255,7 +4255,7 @@
         <v>3490</v>
       </c>
       <c r="O6">
-        <v>1205.2</v>
+        <v>1204.2</v>
       </c>
       <c r="P6">
         <v>199.2</v>
@@ -4279,7 +4279,7 @@
         <v>15781</v>
       </c>
       <c r="W6">
-        <v>7637</v>
+        <v>7630.7</v>
       </c>
       <c r="X6">
         <v>1262.3</v>
@@ -6480,7 +6480,7 @@
         <v>12677</v>
       </c>
       <c r="H6">
-        <v>15844</v>
+        <v>15843</v>
       </c>
       <c r="I6">
         <v>11896.2</v>
@@ -6501,7 +6501,7 @@
         <v>12523</v>
       </c>
       <c r="O6">
-        <v>3947.8</v>
+        <v>3946.8</v>
       </c>
       <c r="P6">
         <v>626.8</v>
@@ -6525,10 +6525,10 @@
         <v>61507</v>
       </c>
       <c r="W6">
-        <v>6418.5</v>
+        <v>6416.8</v>
       </c>
       <c r="X6">
-        <v>1019</v>
+        <v>1019.1</v>
       </c>
       <c r="Y6" t="s">
         <v>368</v>

--- a/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(90+).xlsx
+++ b/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(90+).xlsx
@@ -235,7 +235,7 @@
     <t>249.4 (±16.9)</t>
   </si>
   <si>
-    <t>17632.0 (±274.1)</t>
+    <t>17630.2 (±273.9)</t>
   </si>
   <si>
     <t>5612.6 (±59.6)</t>
@@ -268,7 +268,7 @@
     <t>1626.8 (±244.5)</t>
   </si>
   <si>
-    <t>4636.8 (±472.2)</t>
+    <t>4591.8 (±472.2)</t>
   </si>
   <si>
     <t>929.0 (±150.2)</t>
@@ -277,19 +277,19 @@
     <t>943.4 (±107.6)</t>
   </si>
   <si>
-    <t>2742.6 (±436.8)</t>
+    <t>2743.6 (±436.8)</t>
   </si>
   <si>
     <t>73.6 (±63.2)</t>
   </si>
   <si>
-    <t>359.8 (±104.4)</t>
+    <t>360.8 (±104.4)</t>
   </si>
   <si>
     <t>739.4 (±208.9)</t>
   </si>
   <si>
-    <t>21103.8 (±3149.6)</t>
+    <t>21113.8 (±3149.6)</t>
   </si>
   <si>
     <t>2900.6 (±967.0)</t>
@@ -301,7 +301,7 @@
     <t>12.4 (±22.7)</t>
   </si>
   <si>
-    <t>400.6 (±147.3)</t>
+    <t>413.6 (±147.3)</t>
   </si>
   <si>
     <t>2.2 (±2.7)</t>
@@ -313,16 +313,16 @@
     <t>163.4 (±32.9)</t>
   </si>
   <si>
-    <t>100.0 (±13.8)</t>
-  </si>
-  <si>
-    <t>55.6 (±16.9)</t>
-  </si>
-  <si>
-    <t>2789.0 (±274.1)</t>
-  </si>
-  <si>
-    <t>-93.6 (±59.6)</t>
+    <t>101.0 (±13.8)</t>
+  </si>
+  <si>
+    <t>48.6 (±16.9)</t>
+  </si>
+  <si>
+    <t>2794.8 (±273.9)</t>
+  </si>
+  <si>
+    <t>-97.6 (±59.6)</t>
   </si>
   <si>
     <t>13558.6 (±1943.0)</t>
@@ -331,7 +331,7 @@
     <t>3448.4 (±620.0)</t>
   </si>
   <si>
-    <t>3261.4 (±615.9)</t>
+    <t>3265.4 (±615.9)</t>
   </si>
   <si>
     <t>723.2 (±222.9)</t>
@@ -340,10 +340,10 @@
     <t>592.2 (±77.4)</t>
   </si>
   <si>
-    <t>1011.4 (±127.4)</t>
-  </si>
-  <si>
-    <t>18312.8 (±1641.0)</t>
+    <t>1015.4 (±127.4)</t>
+  </si>
+  <si>
+    <t>18170.8 (±1641.0)</t>
   </si>
   <si>
     <t>1147.8 (±182.9)</t>
@@ -352,7 +352,7 @@
     <t>15.3% (±2.6%)</t>
   </si>
   <si>
-    <t>35.6% (±4.7%)</t>
+    <t>35.3% (±4.8%)</t>
   </si>
   <si>
     <t>17.1% (±3.2%)</t>
@@ -373,7 +373,7 @@
     <t>11.5% (±3.5%)</t>
   </si>
   <si>
-    <t>22.8% (±4.0%)</t>
+    <t>22.9% (±4.1%)</t>
   </si>
   <si>
     <t>23.6% (±9.0%)</t>
@@ -385,7 +385,7 @@
     <t>5.1% (±9.0%)</t>
   </si>
   <si>
-    <t>18.6% (±7.6%)</t>
+    <t>19.3% (±7.7%)</t>
   </si>
   <si>
     <t>7.4% (±8.9%)</t>
@@ -397,16 +397,16 @@
     <t>37.4% (±9.6%)</t>
   </si>
   <si>
-    <t>33.1% (±5.8%)</t>
-  </si>
-  <si>
-    <t>22.3% (±7.8%)</t>
-  </si>
-  <si>
-    <t>15.8% (±1.8%)</t>
-  </si>
-  <si>
-    <t>-1.7% (±1.0%)</t>
+    <t>33.4% (±5.8%)</t>
+  </si>
+  <si>
+    <t>19.5% (±7.6%)</t>
+  </si>
+  <si>
+    <t>15.9% (±1.8%)</t>
+  </si>
+  <si>
+    <t>-1.7% (±1.1%)</t>
   </si>
   <si>
     <t>45.3% (±8.9%)</t>
@@ -424,10 +424,10 @@
     <t>18.5% (±2.8%)</t>
   </si>
   <si>
-    <t>49.8% (±8.8%)</t>
-  </si>
-  <si>
-    <t>33.6% (±3.9%)</t>
+    <t>50.0% (±8.8%)</t>
+  </si>
+  <si>
+    <t>33.4% (±3.9%)</t>
   </si>
   <si>
     <t>9.5% (±1.6%)</t>
@@ -436,7 +436,7 @@
     <t>2713.1(±407.8)</t>
   </si>
   <si>
-    <t>5694.4(±579.9)</t>
+    <t>5639.1(±579.9)</t>
   </si>
   <si>
     <t>3799.9(±614.4)</t>
@@ -445,19 +445,19 @@
     <t>5564.5(±634.6)</t>
   </si>
   <si>
-    <t>5997.9(±955.3)</t>
+    <t>6000.1(±955.2)</t>
   </si>
   <si>
     <t>114.6(±98.5)</t>
   </si>
   <si>
-    <t>3998.2(±1160.2)</t>
+    <t>4009.3(±1160.2)</t>
   </si>
   <si>
     <t>1920.0(±542.4)</t>
   </si>
   <si>
-    <t>3308.0(±493.7)</t>
+    <t>3309.6(±493.7)</t>
   </si>
   <si>
     <t>3877.0(±1292.5)</t>
@@ -469,7 +469,7 @@
     <t>852.2(±1560.2)</t>
   </si>
   <si>
-    <t>3391.8(±1247.1)</t>
+    <t>3501.8(±1247.2)</t>
   </si>
   <si>
     <t>632.2(±775.8)</t>
@@ -481,16 +481,16 @@
     <t>5733.3(±1154.4)</t>
   </si>
   <si>
-    <t>5109.9(±705.1)</t>
-  </si>
-  <si>
-    <t>4215.3(±1281.3)</t>
-  </si>
-  <si>
-    <t>3052.0(±300.0)</t>
-  </si>
-  <si>
-    <t>-294.4(±187.5)</t>
+    <t>5161.0(±705.1)</t>
+  </si>
+  <si>
+    <t>3684.6(±1281.3)</t>
+  </si>
+  <si>
+    <t>3058.4(±299.7)</t>
+  </si>
+  <si>
+    <t>-307.0(±187.5)</t>
   </si>
   <si>
     <t>7156.7(±1025.6)</t>
@@ -499,7 +499,7 @@
     <t>4974.8(±894.4)</t>
   </si>
   <si>
-    <t>4099.2(±774.1)</t>
+    <t>4104.2(±774.1)</t>
   </si>
   <si>
     <t>3131.0(±965.0)</t>
@@ -508,10 +508,10 @@
     <t>3175.2(±415.0)</t>
   </si>
   <si>
-    <t>7754.4(±976.7)</t>
-  </si>
-  <si>
-    <t>4829.5(±432.7)</t>
+    <t>7785.0(±976.8)</t>
+  </si>
+  <si>
+    <t>4792.0(±432.8)</t>
   </si>
   <si>
     <t>1673.2(±266.6)</t>
@@ -574,7 +574,7 @@
     <t>132.2 (±14.4)</t>
   </si>
   <si>
-    <t>7601.6 (±392.8)</t>
+    <t>7600.2 (±391.9)</t>
   </si>
   <si>
     <t>2573.0 (±67.9)</t>
@@ -607,7 +607,7 @@
     <t>1434.0 (±325.4)</t>
   </si>
   <si>
-    <t>2572.2 (±284.3)</t>
+    <t>2557.2 (±284.3)</t>
   </si>
   <si>
     <t>680.4 (±70.0)</t>
@@ -628,7 +628,7 @@
     <t>470.4 (±178.4)</t>
   </si>
   <si>
-    <t>11778.4 (±1827.5)</t>
+    <t>11788.4 (±1827.5)</t>
   </si>
   <si>
     <t>1796.8 (±595.6)</t>
@@ -640,7 +640,7 @@
     <t>8.6 (±10.9)</t>
   </si>
   <si>
-    <t>193.4 (±54.3)</t>
+    <t>198.4 (±54.3)</t>
   </si>
   <si>
     <t>9.4 (±2.4)</t>
@@ -655,10 +655,10 @@
     <t>16.4 (±7.1)</t>
   </si>
   <si>
-    <t>24.8 (±14.4)</t>
-  </si>
-  <si>
-    <t>2410.4 (±392.8)</t>
+    <t>21.8 (±14.4)</t>
+  </si>
+  <si>
+    <t>2414.8 (±391.9)</t>
   </si>
   <si>
     <t>120.0 (±67.9)</t>
@@ -670,7 +670,7 @@
     <t>1714.4 (±364.4)</t>
   </si>
   <si>
-    <t>2253.2 (±315.4)</t>
+    <t>2257.2 (±315.4)</t>
   </si>
   <si>
     <t>666.2 (±121.6)</t>
@@ -682,7 +682,7 @@
     <t>436.0 (±73.5)</t>
   </si>
   <si>
-    <t>10391.4 (±1183.1)</t>
+    <t>10130.4 (±1183.1)</t>
   </si>
   <si>
     <t>1063.2 (±52.7)</t>
@@ -691,7 +691,7 @@
     <t>36.1% (±10.3%)</t>
   </si>
   <si>
-    <t>45.7% (±7.0%)</t>
+    <t>45.4% (±7.0%)</t>
   </si>
   <si>
     <t>25.3% (±3.2%)</t>
@@ -724,7 +724,7 @@
     <t>6.2% (±7.7%)</t>
   </si>
   <si>
-    <t>38.9% (±13.7%)</t>
+    <t>40.0% (±13.8%)</t>
   </si>
   <si>
     <t>88.7% (±34.9%)</t>
@@ -739,10 +739,10 @@
     <t>10.9% (±5.0%)</t>
   </si>
   <si>
-    <t>18.8% (±11.7%)</t>
-  </si>
-  <si>
-    <t>31.7% (±6.5%)</t>
+    <t>16.5% (±11.5%)</t>
+  </si>
+  <si>
+    <t>31.8% (±6.5%)</t>
   </si>
   <si>
     <t>4.7% (±2.7%)</t>
@@ -754,7 +754,7 @@
     <t>30.6% (±8.0%)</t>
   </si>
   <si>
-    <t>36.3% (±6.6%)</t>
+    <t>36.4% (±6.6%)</t>
   </si>
   <si>
     <t>34.6% (±8.0%)</t>
@@ -766,7 +766,7 @@
     <t>69.5% (±17.8%)</t>
   </si>
   <si>
-    <t>40.2% (±6.1%)</t>
+    <t>39.2% (±6.1%)</t>
   </si>
   <si>
     <t>17.3% (±1.0%)</t>
@@ -775,7 +775,7 @@
     <t>6623.3(±1502.9)</t>
   </si>
   <si>
-    <t>8325.9(±920.2)</t>
+    <t>8277.3(±920.3)</t>
   </si>
   <si>
     <t>6112.1(±628.8)</t>
@@ -796,7 +796,7 @@
     <t>3601.6(±1365.9)</t>
   </si>
   <si>
-    <t>5198.7(±806.6)</t>
+    <t>5203.1(±806.6)</t>
   </si>
   <si>
     <t>3578.4(±1186.1)</t>
@@ -808,7 +808,7 @@
     <t>1187.8(±1505.6)</t>
   </si>
   <si>
-    <t>7587.3(±2130.2)</t>
+    <t>7783.4(±2130.3)</t>
   </si>
   <si>
     <t>7966.1(±2033.9)</t>
@@ -823,10 +823,10 @@
     <t>1909.2(±826.5)</t>
   </si>
   <si>
-    <t>2686.9(±1560.1)</t>
-  </si>
-  <si>
-    <t>6836.9(±1114.1)</t>
+    <t>2361.9(±1560.1)</t>
+  </si>
+  <si>
+    <t>6849.3(±1111.6)</t>
   </si>
   <si>
     <t>911.0(±515.4)</t>
@@ -838,7 +838,7 @@
     <t>6618.8(±1406.8)</t>
   </si>
   <si>
-    <t>5798.3(±811.6)</t>
+    <t>5808.5(±811.7)</t>
   </si>
   <si>
     <t>5190.5(±947.4)</t>
@@ -850,7 +850,7 @@
     <t>11835.0(±1995.1)</t>
   </si>
   <si>
-    <t>6576.8(±748.7)</t>
+    <t>6411.6(±748.8)</t>
   </si>
   <si>
     <t>3579.4(±177.5)</t>
@@ -913,7 +913,7 @@
     <t>381.6 (±26.2)</t>
   </si>
   <si>
-    <t>25233.6 (±650.8)</t>
+    <t>25230.4 (±649.7)</t>
   </si>
   <si>
     <t>8185.6 (±68.6)</t>
@@ -946,7 +946,7 @@
     <t>3060.8 (±566.9)</t>
   </si>
   <si>
-    <t>7209.0 (±730.5)</t>
+    <t>7149.0 (±730.5)</t>
   </si>
   <si>
     <t>1609.4 (±210.1)</t>
@@ -955,19 +955,19 @@
     <t>1464.4 (±197.7)</t>
   </si>
   <si>
-    <t>3946.8 (±626.8)</t>
+    <t>3947.8 (±626.8)</t>
   </si>
   <si>
     <t>340.6 (±132.0)</t>
   </si>
   <si>
-    <t>480.8 (±145.6)</t>
+    <t>481.8 (±145.6)</t>
   </si>
   <si>
     <t>1209.8 (±371.7)</t>
   </si>
   <si>
-    <t>32882.2 (±4974.0)</t>
+    <t>32902.2 (±4974.0)</t>
   </si>
   <si>
     <t>4697.4 (±1554.1)</t>
@@ -979,7 +979,7 @@
     <t>21.0 (±31.2)</t>
   </si>
   <si>
-    <t>594.0 (±199.4)</t>
+    <t>612.0 (±199.4)</t>
   </si>
   <si>
     <t>11.6 (±3.1)</t>
@@ -991,16 +991,16 @@
     <t>247.2 (±51.5)</t>
   </si>
   <si>
-    <t>116.4 (±16.8)</t>
-  </si>
-  <si>
-    <t>80.4 (±26.2)</t>
-  </si>
-  <si>
-    <t>5199.4 (±650.8)</t>
-  </si>
-  <si>
-    <t>26.4 (±68.6)</t>
+    <t>117.4 (±16.8)</t>
+  </si>
+  <si>
+    <t>70.4 (±26.2)</t>
+  </si>
+  <si>
+    <t>5209.6 (±649.7)</t>
+  </si>
+  <si>
+    <t>22.4 (±68.6)</t>
   </si>
   <si>
     <t>20219.6 (±2693.6)</t>
@@ -1009,7 +1009,7 @@
     <t>5162.8 (±976.9)</t>
   </si>
   <si>
-    <t>5514.6 (±930.4)</t>
+    <t>5522.6 (±930.4)</t>
   </si>
   <si>
     <t>1389.4 (±338.6)</t>
@@ -1018,10 +1018,10 @@
     <t>827.0 (±88.1)</t>
   </si>
   <si>
-    <t>1447.4 (±194.8)</t>
-  </si>
-  <si>
-    <t>28704.2 (±2821.1)</t>
+    <t>1451.4 (±194.8)</t>
+  </si>
+  <si>
+    <t>28301.2 (±2821.1)</t>
   </si>
   <si>
     <t>2211.0 (±169.5)</t>
@@ -1030,7 +1030,7 @@
     <t>21.0% (±4.5%)</t>
   </si>
   <si>
-    <t>38.6% (±5.2%)</t>
+    <t>38.3% (±5.2%)</t>
   </si>
   <si>
     <t>19.8% (±3.0%)</t>
@@ -1045,7 +1045,7 @@
     <t>4.1% (±1.6%)</t>
   </si>
   <si>
-    <t>27.7% (±9.9%)</t>
+    <t>27.8% (±9.9%)</t>
   </si>
   <si>
     <t>13.7% (±4.6%)</t>
@@ -1063,7 +1063,7 @@
     <t>5.5% (±8.0%)</t>
   </si>
   <si>
-    <t>22.5% (±8.6%)</t>
+    <t>23.1% (±8.6%)</t>
   </si>
   <si>
     <t>28.7% (±9.2%)</t>
@@ -1075,16 +1075,16 @@
     <t>39.8% (±10.7%)</t>
   </si>
   <si>
-    <t>25.7% (±4.5%)</t>
-  </si>
-  <si>
-    <t>21.1% (±7.8%)</t>
+    <t>25.9% (±4.5%)</t>
+  </si>
+  <si>
+    <t>18.4% (±7.6%)</t>
   </si>
   <si>
     <t>20.6% (±3.0%)</t>
   </si>
   <si>
-    <t>0.3% (±0.8%)</t>
+    <t>0.3% (±0.9%)</t>
   </si>
   <si>
     <t>50.2% (±9.4%)</t>
@@ -1102,10 +1102,10 @@
     <t>19.0% (±2.3%)</t>
   </si>
   <si>
-    <t>54.5% (±10.6%)</t>
-  </si>
-  <si>
-    <t>35.7% (±4.6%)</t>
+    <t>54.6% (±10.5%)</t>
+  </si>
+  <si>
+    <t>35.2% (±4.5%)</t>
   </si>
   <si>
     <t>12.2% (±1.1%)</t>
@@ -1114,7 +1114,7 @@
     <t>3750.5(±694.6)</t>
   </si>
   <si>
-    <t>6418.2(±650.3)</t>
+    <t>6364.7(±650.4)</t>
   </si>
   <si>
     <t>4523.3(±590.5)</t>
@@ -1123,19 +1123,19 @@
     <t>6539.3(±882.8)</t>
   </si>
   <si>
-    <t>6416.8(±1019.1)</t>
+    <t>6418.5(±1019.0)</t>
   </si>
   <si>
     <t>379.7(±147.2)</t>
   </si>
   <si>
-    <t>4380.9(±1326.6)</t>
+    <t>4390.0(±1326.6)</t>
   </si>
   <si>
     <t>2345.8(±720.8)</t>
   </si>
   <si>
-    <t>3803.5(±575.3)</t>
+    <t>3805.8(±575.4)</t>
   </si>
   <si>
     <t>3757.0(±1243.0)</t>
@@ -1147,7 +1147,7 @@
     <t>963.7(±1431.9)</t>
   </si>
   <si>
-    <t>4136.5(±1388.6)</t>
+    <t>4261.8(±1388.6)</t>
   </si>
   <si>
     <t>2489.3(±665.2)</t>
@@ -1159,16 +1159,16 @@
     <t>6381.0(±1329.4)</t>
   </si>
   <si>
-    <t>4133.5(±596.6)</t>
-  </si>
-  <si>
-    <t>3586.1(±1168.6)</t>
-  </si>
-  <si>
-    <t>4105.7(±513.9)</t>
-  </si>
-  <si>
-    <t>58.7(±152.6)</t>
+    <t>4169.0(±596.6)</t>
+  </si>
+  <si>
+    <t>3140.1(±1168.6)</t>
+  </si>
+  <si>
+    <t>4113.8(±513.0)</t>
+  </si>
+  <si>
+    <t>49.8(±152.6)</t>
   </si>
   <si>
     <t>8095.8(±1078.5)</t>
@@ -1177,7 +1177,7 @@
     <t>5422.0(±1025.9)</t>
   </si>
   <si>
-    <t>4656.7(±785.7)</t>
+    <t>4663.5(±785.7)</t>
   </si>
   <si>
     <t>3866.6(±942.3)</t>
@@ -1186,10 +1186,10 @@
     <t>3276.2(±349.0)</t>
   </si>
   <si>
-    <t>8653.1(±1164.6)</t>
-  </si>
-  <si>
-    <t>5343.4(±525.2)</t>
+    <t>8677.0(±1164.6)</t>
+  </si>
+  <si>
+    <t>5268.4(±525.1)</t>
   </si>
   <si>
     <t>2249.2(±172.4)</t>
@@ -1757,7 +1757,7 @@
         <v>13426</v>
       </c>
       <c r="H3">
-        <v>17658</v>
+        <v>17613</v>
       </c>
       <c r="I3">
         <v>13021.2</v>
@@ -1778,16 +1778,16 @@
         <v>13493.40000000001</v>
       </c>
       <c r="O3">
-        <v>4636.8</v>
+        <v>4591.8</v>
       </c>
       <c r="P3">
         <v>472.2</v>
       </c>
       <c r="Q3">
-        <v>35.6</v>
+        <v>35.3</v>
       </c>
       <c r="R3">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="S3" t="s">
         <v>55</v>
@@ -1802,7 +1802,7 @@
         <v>81428</v>
       </c>
       <c r="W3">
-        <v>5694.4</v>
+        <v>5639.1</v>
       </c>
       <c r="X3">
         <v>579.9</v>
@@ -1988,7 +1988,7 @@
         <v>9088</v>
       </c>
       <c r="H6">
-        <v>11348</v>
+        <v>11349</v>
       </c>
       <c r="I6">
         <v>8605.4</v>
@@ -2009,7 +2009,7 @@
         <v>9042.199999999999</v>
       </c>
       <c r="O6">
-        <v>2742.6</v>
+        <v>2743.6</v>
       </c>
       <c r="P6">
         <v>436.8</v>
@@ -2033,10 +2033,10 @@
         <v>45726</v>
       </c>
       <c r="W6">
-        <v>5997.9</v>
+        <v>6000.1</v>
       </c>
       <c r="X6">
-        <v>955.3</v>
+        <v>955.2</v>
       </c>
       <c r="Y6" t="s">
         <v>142</v>
@@ -2142,7 +2142,7 @@
         <v>1525</v>
       </c>
       <c r="H8">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="I8">
         <v>1391.2</v>
@@ -2163,7 +2163,7 @@
         <v>1495.6</v>
       </c>
       <c r="O8">
-        <v>359.8</v>
+        <v>360.8</v>
       </c>
       <c r="P8">
         <v>104.4</v>
@@ -2187,7 +2187,7 @@
         <v>8999</v>
       </c>
       <c r="W8">
-        <v>3998.2</v>
+        <v>4009.3</v>
       </c>
       <c r="X8">
         <v>1160.2</v>
@@ -2296,7 +2296,7 @@
         <v>95317</v>
       </c>
       <c r="H10">
-        <v>113497</v>
+        <v>113507</v>
       </c>
       <c r="I10">
         <v>92393.2</v>
@@ -2317,16 +2317,16 @@
         <v>95542.8</v>
       </c>
       <c r="O10">
-        <v>21103.8</v>
+        <v>21113.8</v>
       </c>
       <c r="P10">
         <v>3149.6</v>
       </c>
       <c r="Q10">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="R10">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="S10" t="s">
         <v>62</v>
@@ -2341,7 +2341,7 @@
         <v>637962</v>
       </c>
       <c r="W10">
-        <v>3308</v>
+        <v>3309.6</v>
       </c>
       <c r="X10">
         <v>493.7</v>
@@ -2604,7 +2604,7 @@
         <v>2303</v>
       </c>
       <c r="H14">
-        <v>2549</v>
+        <v>2562</v>
       </c>
       <c r="I14">
         <v>2148.4</v>
@@ -2625,16 +2625,16 @@
         <v>2295.7</v>
       </c>
       <c r="O14">
-        <v>400.6</v>
+        <v>413.6</v>
       </c>
       <c r="P14">
         <v>147.3</v>
       </c>
       <c r="Q14">
-        <v>18.6</v>
+        <v>19.3</v>
       </c>
       <c r="R14">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="S14" t="s">
         <v>66</v>
@@ -2649,10 +2649,10 @@
         <v>11811</v>
       </c>
       <c r="W14">
-        <v>3391.8</v>
+        <v>3501.8</v>
       </c>
       <c r="X14">
-        <v>1247.1</v>
+        <v>1247.2</v>
       </c>
       <c r="Y14" t="s">
         <v>150</v>
@@ -2912,7 +2912,7 @@
         <v>297</v>
       </c>
       <c r="H18">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I18">
         <v>301.9999999999999</v>
@@ -2933,13 +2933,13 @@
         <v>315.8</v>
       </c>
       <c r="O18">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P18">
         <v>13.8</v>
       </c>
       <c r="Q18">
-        <v>33.1</v>
+        <v>33.4</v>
       </c>
       <c r="R18">
         <v>5.8</v>
@@ -2957,7 +2957,7 @@
         <v>1957</v>
       </c>
       <c r="W18">
-        <v>5109.9</v>
+        <v>5161</v>
       </c>
       <c r="X18">
         <v>705.1</v>
@@ -2989,7 +2989,7 @@
         <v>257</v>
       </c>
       <c r="H19">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="I19">
         <v>249.4</v>
@@ -3010,16 +3010,16 @@
         <v>266.3</v>
       </c>
       <c r="O19">
-        <v>55.6</v>
+        <v>48.6</v>
       </c>
       <c r="P19">
         <v>16.9</v>
       </c>
       <c r="Q19">
-        <v>22.3</v>
+        <v>19.5</v>
       </c>
       <c r="R19">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="S19" t="s">
         <v>71</v>
@@ -3034,7 +3034,7 @@
         <v>1319</v>
       </c>
       <c r="W19">
-        <v>4215.3</v>
+        <v>3684.6</v>
       </c>
       <c r="X19">
         <v>1281.3</v>
@@ -3054,46 +3054,46 @@
         <v>16825</v>
       </c>
       <c r="D20">
-        <v>17431</v>
+        <v>17430</v>
       </c>
       <c r="E20">
-        <v>17112</v>
+        <v>17108</v>
       </c>
       <c r="F20">
-        <v>17410</v>
+        <v>17408</v>
       </c>
       <c r="G20">
-        <v>17746</v>
+        <v>17744</v>
       </c>
       <c r="H20">
-        <v>20421</v>
+        <v>20425</v>
       </c>
       <c r="I20">
-        <v>17632</v>
+        <v>17630.2</v>
       </c>
       <c r="J20">
-        <v>312.7</v>
+        <v>312.5</v>
       </c>
       <c r="K20">
         <v>1.96</v>
       </c>
       <c r="L20">
-        <v>274.1</v>
+        <v>273.9</v>
       </c>
       <c r="M20">
-        <v>17357.9</v>
+        <v>17356.3</v>
       </c>
       <c r="N20">
-        <v>17906.1</v>
+        <v>17904.10000000001</v>
       </c>
       <c r="O20">
-        <v>2789</v>
+        <v>2794.8</v>
       </c>
       <c r="P20">
-        <v>274.1</v>
+        <v>273.9</v>
       </c>
       <c r="Q20">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="R20">
         <v>1.8</v>
@@ -3111,10 +3111,10 @@
         <v>91382</v>
       </c>
       <c r="W20">
-        <v>3052</v>
+        <v>3058.4</v>
       </c>
       <c r="X20">
-        <v>300</v>
+        <v>299.7</v>
       </c>
       <c r="Y20" t="s">
         <v>156</v>
@@ -3143,7 +3143,7 @@
         <v>5420</v>
       </c>
       <c r="H21">
-        <v>5519</v>
+        <v>5515</v>
       </c>
       <c r="I21">
         <v>5612.599999999999</v>
@@ -3164,7 +3164,7 @@
         <v>5672.2</v>
       </c>
       <c r="O21">
-        <v>-93.59999999999999</v>
+        <v>-97.59999999999999</v>
       </c>
       <c r="P21">
         <v>59.6</v>
@@ -3173,7 +3173,7 @@
         <v>-1.7</v>
       </c>
       <c r="R21">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="S21" t="s">
         <v>73</v>
@@ -3188,7 +3188,7 @@
         <v>31795</v>
       </c>
       <c r="W21">
-        <v>-294.4</v>
+        <v>-307</v>
       </c>
       <c r="X21">
         <v>187.5</v>
@@ -3374,7 +3374,7 @@
         <v>13546</v>
       </c>
       <c r="H24">
-        <v>16172</v>
+        <v>16176</v>
       </c>
       <c r="I24">
         <v>12910.6</v>
@@ -3395,7 +3395,7 @@
         <v>13526.5</v>
       </c>
       <c r="O24">
-        <v>3261.4</v>
+        <v>3265.4</v>
       </c>
       <c r="P24">
         <v>615.9</v>
@@ -3419,7 +3419,7 @@
         <v>79562</v>
       </c>
       <c r="W24">
-        <v>4099.2</v>
+        <v>4104.2</v>
       </c>
       <c r="X24">
         <v>774.1</v>
@@ -3605,7 +3605,7 @@
         <v>2243</v>
       </c>
       <c r="H27">
-        <v>3041</v>
+        <v>3045</v>
       </c>
       <c r="I27">
         <v>2029.6</v>
@@ -3626,13 +3626,13 @@
         <v>2157</v>
       </c>
       <c r="O27">
-        <v>1011.4</v>
+        <v>1015.4</v>
       </c>
       <c r="P27">
         <v>127.4</v>
       </c>
       <c r="Q27">
-        <v>49.8</v>
+        <v>50</v>
       </c>
       <c r="R27">
         <v>8.800000000000001</v>
@@ -3650,10 +3650,10 @@
         <v>13043</v>
       </c>
       <c r="W27">
-        <v>7754.4</v>
+        <v>7785</v>
       </c>
       <c r="X27">
-        <v>976.7</v>
+        <v>976.8</v>
       </c>
       <c r="Y27" t="s">
         <v>163</v>
@@ -3682,7 +3682,7 @@
         <v>55953</v>
       </c>
       <c r="H28">
-        <v>72770</v>
+        <v>72628</v>
       </c>
       <c r="I28">
         <v>54457.2</v>
@@ -3703,13 +3703,13 @@
         <v>56098.2</v>
       </c>
       <c r="O28">
-        <v>18312.8</v>
+        <v>18170.8</v>
       </c>
       <c r="P28">
         <v>1641</v>
       </c>
       <c r="Q28">
-        <v>33.6</v>
+        <v>33.4</v>
       </c>
       <c r="R28">
         <v>3.9</v>
@@ -3727,10 +3727,10 @@
         <v>379188</v>
       </c>
       <c r="W28">
-        <v>4829.5</v>
+        <v>4792</v>
       </c>
       <c r="X28">
-        <v>432.7</v>
+        <v>432.8</v>
       </c>
       <c r="Y28" t="s">
         <v>164</v>
@@ -4003,7 +4003,7 @@
         <v>5972</v>
       </c>
       <c r="H3">
-        <v>8206</v>
+        <v>8191</v>
       </c>
       <c r="I3">
         <v>5633.8</v>
@@ -4024,13 +4024,13 @@
         <v>5918.1</v>
       </c>
       <c r="O3">
-        <v>2572.2</v>
+        <v>2557.2</v>
       </c>
       <c r="P3">
         <v>284.3</v>
       </c>
       <c r="Q3">
-        <v>45.7</v>
+        <v>45.4</v>
       </c>
       <c r="R3">
         <v>7</v>
@@ -4048,10 +4048,10 @@
         <v>30894</v>
       </c>
       <c r="W3">
-        <v>8325.9</v>
+        <v>8277.299999999999</v>
       </c>
       <c r="X3">
-        <v>920.2</v>
+        <v>920.3</v>
       </c>
       <c r="Y3" t="s">
         <v>252</v>
@@ -4542,7 +4542,7 @@
         <v>43449</v>
       </c>
       <c r="H10">
-        <v>53575</v>
+        <v>53585</v>
       </c>
       <c r="I10">
         <v>41796.60000000001</v>
@@ -4563,7 +4563,7 @@
         <v>43624.10000000001</v>
       </c>
       <c r="O10">
-        <v>11778.4</v>
+        <v>11788.4</v>
       </c>
       <c r="P10">
         <v>1827.5</v>
@@ -4587,7 +4587,7 @@
         <v>226564</v>
       </c>
       <c r="W10">
-        <v>5198.7</v>
+        <v>5203.1</v>
       </c>
       <c r="X10">
         <v>806.6</v>
@@ -4850,7 +4850,7 @@
         <v>570</v>
       </c>
       <c r="H14">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="I14">
         <v>496.5999999999999</v>
@@ -4871,16 +4871,16 @@
         <v>550.8999999999999</v>
       </c>
       <c r="O14">
-        <v>193.4</v>
+        <v>198.4</v>
       </c>
       <c r="P14">
         <v>54.3</v>
       </c>
       <c r="Q14">
-        <v>38.9</v>
+        <v>40</v>
       </c>
       <c r="R14">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="S14" t="s">
         <v>179</v>
@@ -4895,10 +4895,10 @@
         <v>2549</v>
       </c>
       <c r="W14">
-        <v>7587.3</v>
+        <v>7783.4</v>
       </c>
       <c r="X14">
-        <v>2130.2</v>
+        <v>2130.3</v>
       </c>
       <c r="Y14" t="s">
         <v>263</v>
@@ -5235,7 +5235,7 @@
         <v>145</v>
       </c>
       <c r="H19">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I19">
         <v>132.2</v>
@@ -5256,16 +5256,16 @@
         <v>146.6</v>
       </c>
       <c r="O19">
-        <v>24.8</v>
+        <v>21.8</v>
       </c>
       <c r="P19">
         <v>14.4</v>
       </c>
       <c r="Q19">
-        <v>18.8</v>
+        <v>16.5</v>
       </c>
       <c r="R19">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="S19" t="s">
         <v>184</v>
@@ -5280,7 +5280,7 @@
         <v>923</v>
       </c>
       <c r="W19">
-        <v>2686.9</v>
+        <v>2361.9</v>
       </c>
       <c r="X19">
         <v>1560.1</v>
@@ -5303,43 +5303,43 @@
         <v>7267</v>
       </c>
       <c r="E20">
-        <v>7232</v>
+        <v>7230</v>
       </c>
       <c r="F20">
-        <v>7771</v>
+        <v>7769</v>
       </c>
       <c r="G20">
-        <v>8188</v>
+        <v>8185</v>
       </c>
       <c r="H20">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="I20">
-        <v>7601.599999999999</v>
+        <v>7600.200000000001</v>
       </c>
       <c r="J20">
-        <v>448.1</v>
+        <v>447.1</v>
       </c>
       <c r="K20">
         <v>1.96</v>
       </c>
       <c r="L20">
-        <v>392.8</v>
+        <v>391.9</v>
       </c>
       <c r="M20">
-        <v>7208.799999999999</v>
+        <v>7208.300000000001</v>
       </c>
       <c r="N20">
-        <v>7994.4</v>
+        <v>7992.1</v>
       </c>
       <c r="O20">
-        <v>2410.4</v>
+        <v>2414.8</v>
       </c>
       <c r="P20">
-        <v>392.8</v>
+        <v>391.9</v>
       </c>
       <c r="Q20">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="R20">
         <v>6.5</v>
@@ -5357,10 +5357,10 @@
         <v>35256</v>
       </c>
       <c r="W20">
-        <v>6836.9</v>
+        <v>6849.3</v>
       </c>
       <c r="X20">
-        <v>1114.1</v>
+        <v>1111.6</v>
       </c>
       <c r="Y20" t="s">
         <v>269</v>
@@ -5620,7 +5620,7 @@
         <v>6486</v>
       </c>
       <c r="H24">
-        <v>8457</v>
+        <v>8461</v>
       </c>
       <c r="I24">
         <v>6203.799999999997</v>
@@ -5641,13 +5641,13 @@
         <v>6519.199999999997</v>
       </c>
       <c r="O24">
-        <v>2253.2</v>
+        <v>2257.2</v>
       </c>
       <c r="P24">
         <v>315.4</v>
       </c>
       <c r="Q24">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="R24">
         <v>6.6</v>
@@ -5665,10 +5665,10 @@
         <v>38860</v>
       </c>
       <c r="W24">
-        <v>5798.3</v>
+        <v>5808.5</v>
       </c>
       <c r="X24">
-        <v>811.6</v>
+        <v>811.7</v>
       </c>
       <c r="Y24" t="s">
         <v>273</v>
@@ -5928,7 +5928,7 @@
         <v>27059</v>
       </c>
       <c r="H28">
-        <v>36229</v>
+        <v>35968</v>
       </c>
       <c r="I28">
         <v>25837.59999999999</v>
@@ -5949,13 +5949,13 @@
         <v>27020.69999999999</v>
       </c>
       <c r="O28">
-        <v>10391.4</v>
+        <v>10130.4</v>
       </c>
       <c r="P28">
         <v>1183.1</v>
       </c>
       <c r="Q28">
-        <v>40.2</v>
+        <v>39.2</v>
       </c>
       <c r="R28">
         <v>6.1</v>
@@ -5973,10 +5973,10 @@
         <v>158002</v>
       </c>
       <c r="W28">
-        <v>6576.8</v>
+        <v>6411.6</v>
       </c>
       <c r="X28">
-        <v>748.7</v>
+        <v>748.8</v>
       </c>
       <c r="Y28" t="s">
         <v>277</v>
@@ -6249,7 +6249,7 @@
         <v>19398</v>
       </c>
       <c r="H3">
-        <v>25864</v>
+        <v>25804</v>
       </c>
       <c r="I3">
         <v>18655</v>
@@ -6270,13 +6270,13 @@
         <v>19385.5</v>
       </c>
       <c r="O3">
-        <v>7209</v>
+        <v>7149</v>
       </c>
       <c r="P3">
         <v>730.5</v>
       </c>
       <c r="Q3">
-        <v>38.6</v>
+        <v>38.3</v>
       </c>
       <c r="R3">
         <v>5.2</v>
@@ -6294,10 +6294,10 @@
         <v>112322</v>
       </c>
       <c r="W3">
-        <v>6418.2</v>
+        <v>6364.7</v>
       </c>
       <c r="X3">
-        <v>650.3</v>
+        <v>650.4</v>
       </c>
       <c r="Y3" t="s">
         <v>365</v>
@@ -6480,7 +6480,7 @@
         <v>12677</v>
       </c>
       <c r="H6">
-        <v>15843</v>
+        <v>15844</v>
       </c>
       <c r="I6">
         <v>11896.2</v>
@@ -6501,7 +6501,7 @@
         <v>12523</v>
       </c>
       <c r="O6">
-        <v>3946.8</v>
+        <v>3947.8</v>
       </c>
       <c r="P6">
         <v>626.8</v>
@@ -6525,10 +6525,10 @@
         <v>61507</v>
       </c>
       <c r="W6">
-        <v>6416.8</v>
+        <v>6418.5</v>
       </c>
       <c r="X6">
-        <v>1019.1</v>
+        <v>1019</v>
       </c>
       <c r="Y6" t="s">
         <v>368</v>
@@ -6634,7 +6634,7 @@
         <v>1922</v>
       </c>
       <c r="H8">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="I8">
         <v>1736.2</v>
@@ -6655,13 +6655,13 @@
         <v>1881.8</v>
       </c>
       <c r="O8">
-        <v>480.8</v>
+        <v>481.8</v>
       </c>
       <c r="P8">
         <v>145.6</v>
       </c>
       <c r="Q8">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="R8">
         <v>9.9</v>
@@ -6679,7 +6679,7 @@
         <v>10975</v>
       </c>
       <c r="W8">
-        <v>4380.9</v>
+        <v>4390</v>
       </c>
       <c r="X8">
         <v>1326.6</v>
@@ -6788,7 +6788,7 @@
         <v>138766</v>
       </c>
       <c r="H10">
-        <v>167072</v>
+        <v>167092</v>
       </c>
       <c r="I10">
         <v>134189.8</v>
@@ -6809,7 +6809,7 @@
         <v>139163.8</v>
       </c>
       <c r="O10">
-        <v>32882.2</v>
+        <v>32902.2</v>
       </c>
       <c r="P10">
         <v>4974</v>
@@ -6833,10 +6833,10 @@
         <v>864526</v>
       </c>
       <c r="W10">
-        <v>3803.5</v>
+        <v>3805.8</v>
       </c>
       <c r="X10">
-        <v>575.3</v>
+        <v>575.4</v>
       </c>
       <c r="Y10" t="s">
         <v>372</v>
@@ -7096,7 +7096,7 @@
         <v>2873</v>
       </c>
       <c r="H14">
-        <v>3239</v>
+        <v>3257</v>
       </c>
       <c r="I14">
         <v>2645</v>
@@ -7117,13 +7117,13 @@
         <v>2844.4</v>
       </c>
       <c r="O14">
-        <v>594</v>
+        <v>612</v>
       </c>
       <c r="P14">
         <v>199.4</v>
       </c>
       <c r="Q14">
-        <v>22.5</v>
+        <v>23.1</v>
       </c>
       <c r="R14">
         <v>8.6</v>
@@ -7141,7 +7141,7 @@
         <v>14360</v>
       </c>
       <c r="W14">
-        <v>4136.5</v>
+        <v>4261.8</v>
       </c>
       <c r="X14">
         <v>1388.6</v>
@@ -7404,7 +7404,7 @@
         <v>444</v>
       </c>
       <c r="H18">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="I18">
         <v>452.6</v>
@@ -7425,13 +7425,13 @@
         <v>469.4</v>
       </c>
       <c r="O18">
-        <v>116.4</v>
+        <v>117.4</v>
       </c>
       <c r="P18">
         <v>16.8</v>
       </c>
       <c r="Q18">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="R18">
         <v>4.5</v>
@@ -7449,7 +7449,7 @@
         <v>2816</v>
       </c>
       <c r="W18">
-        <v>4133.5</v>
+        <v>4169</v>
       </c>
       <c r="X18">
         <v>596.6</v>
@@ -7481,7 +7481,7 @@
         <v>402</v>
       </c>
       <c r="H19">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="I19">
         <v>381.6</v>
@@ -7502,16 +7502,16 @@
         <v>407.8</v>
       </c>
       <c r="O19">
-        <v>80.40000000000001</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="P19">
         <v>26.2</v>
       </c>
       <c r="Q19">
-        <v>21.1</v>
+        <v>18.4</v>
       </c>
       <c r="R19">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="S19" t="s">
         <v>297</v>
@@ -7526,7 +7526,7 @@
         <v>2242</v>
       </c>
       <c r="W19">
-        <v>3586.1</v>
+        <v>3140.1</v>
       </c>
       <c r="X19">
         <v>1168.6</v>
@@ -7546,43 +7546,43 @@
         <v>23747</v>
       </c>
       <c r="D20">
-        <v>24698</v>
+        <v>24697</v>
       </c>
       <c r="E20">
-        <v>24344</v>
+        <v>24338</v>
       </c>
       <c r="F20">
-        <v>25181</v>
+        <v>25177</v>
       </c>
       <c r="G20">
-        <v>25934</v>
+        <v>25929</v>
       </c>
       <c r="H20">
-        <v>30433</v>
+        <v>30440</v>
       </c>
       <c r="I20">
-        <v>25233.6</v>
+        <v>25230.40000000001</v>
       </c>
       <c r="J20">
-        <v>742.5</v>
+        <v>741.2</v>
       </c>
       <c r="K20">
         <v>1.96</v>
       </c>
       <c r="L20">
-        <v>650.8</v>
+        <v>649.7</v>
       </c>
       <c r="M20">
-        <v>24582.8</v>
+        <v>24580.7</v>
       </c>
       <c r="N20">
-        <v>25884.4</v>
+        <v>25880.10000000001</v>
       </c>
       <c r="O20">
-        <v>5199.4</v>
+        <v>5209.6</v>
       </c>
       <c r="P20">
-        <v>650.8</v>
+        <v>649.7</v>
       </c>
       <c r="Q20">
         <v>20.6</v>
@@ -7603,10 +7603,10 @@
         <v>126638</v>
       </c>
       <c r="W20">
-        <v>4105.7</v>
+        <v>4113.8</v>
       </c>
       <c r="X20">
-        <v>513.9</v>
+        <v>513</v>
       </c>
       <c r="Y20" t="s">
         <v>382</v>
@@ -7635,7 +7635,7 @@
         <v>8094</v>
       </c>
       <c r="H21">
-        <v>8212</v>
+        <v>8208</v>
       </c>
       <c r="I21">
         <v>8185.600000000001</v>
@@ -7656,7 +7656,7 @@
         <v>8254.200000000001</v>
       </c>
       <c r="O21">
-        <v>26.4</v>
+        <v>22.4</v>
       </c>
       <c r="P21">
         <v>68.59999999999999</v>
@@ -7665,7 +7665,7 @@
         <v>0.3</v>
       </c>
       <c r="R21">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="S21" t="s">
         <v>299</v>
@@ -7680,7 +7680,7 @@
         <v>44968</v>
       </c>
       <c r="W21">
-        <v>58.7</v>
+        <v>49.8</v>
       </c>
       <c r="X21">
         <v>152.6</v>
@@ -7866,7 +7866,7 @@
         <v>20032</v>
       </c>
       <c r="H24">
-        <v>24629</v>
+        <v>24637</v>
       </c>
       <c r="I24">
         <v>19114.4</v>
@@ -7887,7 +7887,7 @@
         <v>20044.8</v>
       </c>
       <c r="O24">
-        <v>5514.6</v>
+        <v>5522.6</v>
       </c>
       <c r="P24">
         <v>930.4</v>
@@ -7911,7 +7911,7 @@
         <v>118422</v>
       </c>
       <c r="W24">
-        <v>4656.7</v>
+        <v>4663.5</v>
       </c>
       <c r="X24">
         <v>785.7</v>
@@ -8097,7 +8097,7 @@
         <v>2955</v>
       </c>
       <c r="H27">
-        <v>4104</v>
+        <v>4108</v>
       </c>
       <c r="I27">
         <v>2656.600000000001</v>
@@ -8118,16 +8118,16 @@
         <v>2851.400000000001</v>
       </c>
       <c r="O27">
-        <v>1447.4</v>
+        <v>1451.4</v>
       </c>
       <c r="P27">
         <v>194.8</v>
       </c>
       <c r="Q27">
-        <v>54.5</v>
+        <v>54.6</v>
       </c>
       <c r="R27">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S27" t="s">
         <v>305</v>
@@ -8142,7 +8142,7 @@
         <v>16727</v>
       </c>
       <c r="W27">
-        <v>8653.1</v>
+        <v>8677</v>
       </c>
       <c r="X27">
         <v>1164.6</v>
@@ -8174,7 +8174,7 @@
         <v>83012</v>
       </c>
       <c r="H28">
-        <v>108999</v>
+        <v>108596</v>
       </c>
       <c r="I28">
         <v>80294.79999999999</v>
@@ -8195,16 +8195,16 @@
         <v>83115.89999999999</v>
       </c>
       <c r="O28">
-        <v>28704.2</v>
+        <v>28301.2</v>
       </c>
       <c r="P28">
         <v>2821.1</v>
       </c>
       <c r="Q28">
-        <v>35.7</v>
+        <v>35.2</v>
       </c>
       <c r="R28">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="S28" t="s">
         <v>306</v>
@@ -8219,10 +8219,10 @@
         <v>537190</v>
       </c>
       <c r="W28">
-        <v>5343.4</v>
+        <v>5268.4</v>
       </c>
       <c r="X28">
-        <v>525.2</v>
+        <v>525.1</v>
       </c>
       <c r="Y28" t="s">
         <v>390</v>

--- a/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(90+).xlsx
+++ b/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(90+).xlsx
@@ -277,25 +277,25 @@
     <t>943.4 (±107.6)</t>
   </si>
   <si>
-    <t>2743.6 (±436.8)</t>
+    <t>2744.6 (±436.8)</t>
   </si>
   <si>
     <t>73.6 (±63.2)</t>
   </si>
   <si>
-    <t>360.8 (±104.4)</t>
+    <t>347.8 (±104.4)</t>
   </si>
   <si>
     <t>739.4 (±208.9)</t>
   </si>
   <si>
-    <t>21113.8 (±3149.6)</t>
+    <t>21122.8 (±3149.6)</t>
   </si>
   <si>
     <t>2900.6 (±967.0)</t>
   </si>
   <si>
-    <t>1495.4 (±223.6)</t>
+    <t>1504.4 (±223.6)</t>
   </si>
   <si>
     <t>12.4 (±22.7)</t>
@@ -316,13 +316,13 @@
     <t>101.0 (±13.8)</t>
   </si>
   <si>
-    <t>48.6 (±16.9)</t>
+    <t>59.6 (±16.9)</t>
   </si>
   <si>
     <t>2794.8 (±273.9)</t>
   </si>
   <si>
-    <t>-97.6 (±59.6)</t>
+    <t>-96.6 (±59.6)</t>
   </si>
   <si>
     <t>13558.6 (±1943.0)</t>
@@ -340,13 +340,13 @@
     <t>592.2 (±77.4)</t>
   </si>
   <si>
-    <t>1015.4 (±127.4)</t>
+    <t>1009.4 (±127.4)</t>
   </si>
   <si>
     <t>18170.8 (±1641.0)</t>
   </si>
   <si>
-    <t>1147.8 (±182.9)</t>
+    <t>1148.8 (±182.9)</t>
   </si>
   <si>
     <t>15.3% (±2.6%)</t>
@@ -367,7 +367,7 @@
     <t>1.3% (±1.1%)</t>
   </si>
   <si>
-    <t>25.9% (±8.8%)</t>
+    <t>25.0% (±8.7%)</t>
   </si>
   <si>
     <t>11.5% (±3.5%)</t>
@@ -379,7 +379,7 @@
     <t>23.6% (±9.0%)</t>
   </si>
   <si>
-    <t>17.8% (±3.0%)</t>
+    <t>18.0% (±3.1%)</t>
   </si>
   <si>
     <t>5.1% (±9.0%)</t>
@@ -400,7 +400,7 @@
     <t>33.4% (±5.8%)</t>
   </si>
   <si>
-    <t>19.5% (±7.6%)</t>
+    <t>23.9% (±7.9%)</t>
   </si>
   <si>
     <t>15.9% (±1.8%)</t>
@@ -424,13 +424,13 @@
     <t>18.5% (±2.8%)</t>
   </si>
   <si>
-    <t>50.0% (±8.8%)</t>
+    <t>49.7% (±8.8%)</t>
   </si>
   <si>
     <t>33.4% (±3.9%)</t>
   </si>
   <si>
-    <t>9.5% (±1.6%)</t>
+    <t>9.6% (±1.7%)</t>
   </si>
   <si>
     <t>2713.1(±407.8)</t>
@@ -445,25 +445,25 @@
     <t>5564.5(±634.6)</t>
   </si>
   <si>
-    <t>6000.1(±955.2)</t>
+    <t>6002.3(±955.2)</t>
   </si>
   <si>
     <t>114.6(±98.5)</t>
   </si>
   <si>
-    <t>4009.3(±1160.2)</t>
+    <t>3864.9(±1160.1)</t>
   </si>
   <si>
     <t>1920.0(±542.4)</t>
   </si>
   <si>
-    <t>3309.6(±493.7)</t>
+    <t>3311.0(±493.7)</t>
   </si>
   <si>
     <t>3877.0(±1292.5)</t>
   </si>
   <si>
-    <t>3203.3(±479.0)</t>
+    <t>3222.6(±479.0)</t>
   </si>
   <si>
     <t>852.2(±1560.2)</t>
@@ -484,13 +484,13 @@
     <t>5161.0(±705.1)</t>
   </si>
   <si>
-    <t>3684.6(±1281.3)</t>
+    <t>4518.6(±1281.2)</t>
   </si>
   <si>
     <t>3058.4(±299.7)</t>
   </si>
   <si>
-    <t>-307.0(±187.5)</t>
+    <t>-303.8(±187.4)</t>
   </si>
   <si>
     <t>7156.7(±1025.6)</t>
@@ -508,13 +508,13 @@
     <t>3175.2(±415.0)</t>
   </si>
   <si>
-    <t>7785.0(±976.8)</t>
+    <t>7739.0(±976.8)</t>
   </si>
   <si>
     <t>4792.0(±432.8)</t>
   </si>
   <si>
-    <t>1673.2(±266.6)</t>
+    <t>1674.6(±266.7)</t>
   </si>
   <si>
     <t>Male</t>
@@ -607,7 +607,7 @@
     <t>1434.0 (±325.4)</t>
   </si>
   <si>
-    <t>2557.2 (±284.3)</t>
+    <t>2556.2 (±284.3)</t>
   </si>
   <si>
     <t>680.4 (±70.0)</t>
@@ -622,19 +622,19 @@
     <t>267.0 (±87.0)</t>
   </si>
   <si>
-    <t>121.0 (±42.3)</t>
+    <t>115.0 (±42.3)</t>
   </si>
   <si>
     <t>470.4 (±178.4)</t>
   </si>
   <si>
-    <t>11788.4 (±1827.5)</t>
+    <t>11793.4 (±1827.5)</t>
   </si>
   <si>
     <t>1796.8 (±595.6)</t>
   </si>
   <si>
-    <t>463.2 (±44.2)</t>
+    <t>464.2 (±44.2)</t>
   </si>
   <si>
     <t>8.6 (±10.9)</t>
@@ -655,7 +655,7 @@
     <t>16.4 (±7.1)</t>
   </si>
   <si>
-    <t>21.8 (±14.4)</t>
+    <t>32.8 (±14.4)</t>
   </si>
   <si>
     <t>2414.8 (±391.9)</t>
@@ -679,7 +679,7 @@
     <t>234.8 (±15.9)</t>
   </si>
   <si>
-    <t>436.0 (±73.5)</t>
+    <t>433.0 (±73.5)</t>
   </si>
   <si>
     <t>10130.4 (±1183.1)</t>
@@ -706,7 +706,7 @@
     <t>10.2% (±3.6%)</t>
   </si>
   <si>
-    <t>35.1% (±14.8%)</t>
+    <t>33.3% (±14.5%)</t>
   </si>
   <si>
     <t>19.3% (±8.1%)</t>
@@ -718,7 +718,7 @@
     <t>26.2% (±10.1%)</t>
   </si>
   <si>
-    <t>16.0% (±1.7%)</t>
+    <t>16.1% (±1.8%)</t>
   </si>
   <si>
     <t>6.2% (±7.7%)</t>
@@ -739,7 +739,7 @@
     <t>10.9% (±5.0%)</t>
   </si>
   <si>
-    <t>16.5% (±11.5%)</t>
+    <t>24.8% (±12.2%)</t>
   </si>
   <si>
     <t>31.8% (±6.5%)</t>
@@ -763,7 +763,7 @@
     <t>20.4% (±1.6%)</t>
   </si>
   <si>
-    <t>69.5% (±17.8%)</t>
+    <t>69.1% (±17.8%)</t>
   </si>
   <si>
     <t>39.2% (±6.1%)</t>
@@ -775,7 +775,7 @@
     <t>6623.3(±1502.9)</t>
   </si>
   <si>
-    <t>8277.3(±920.3)</t>
+    <t>8274.1(±920.2)</t>
   </si>
   <si>
     <t>6112.1(±628.8)</t>
@@ -790,19 +790,19 @@
     <t>1047.3(±341.3)</t>
   </si>
   <si>
-    <t>6123.5(±2140.7)</t>
+    <t>5819.8(±2140.7)</t>
   </si>
   <si>
     <t>3601.6(±1365.9)</t>
   </si>
   <si>
-    <t>5203.1(±806.6)</t>
+    <t>5205.3(±806.6)</t>
   </si>
   <si>
     <t>3578.4(±1186.1)</t>
   </si>
   <si>
-    <t>3172.4(±302.7)</t>
+    <t>3179.2(±302.8)</t>
   </si>
   <si>
     <t>1187.8(±1505.6)</t>
@@ -823,7 +823,7 @@
     <t>1909.2(±826.5)</t>
   </si>
   <si>
-    <t>2361.9(±1560.1)</t>
+    <t>3553.6(±1560.2)</t>
   </si>
   <si>
     <t>6849.3(±1111.6)</t>
@@ -847,7 +847,7 @@
     <t>3561.9(±241.2)</t>
   </si>
   <si>
-    <t>11835.0(±1995.1)</t>
+    <t>11753.5(±1995.1)</t>
   </si>
   <si>
     <t>6411.6(±748.8)</t>
@@ -946,7 +946,7 @@
     <t>3060.8 (±566.9)</t>
   </si>
   <si>
-    <t>7149.0 (±730.5)</t>
+    <t>7148.0 (±730.5)</t>
   </si>
   <si>
     <t>1609.4 (±210.1)</t>
@@ -955,25 +955,25 @@
     <t>1464.4 (±197.7)</t>
   </si>
   <si>
-    <t>3947.8 (±626.8)</t>
+    <t>3948.8 (±626.8)</t>
   </si>
   <si>
     <t>340.6 (±132.0)</t>
   </si>
   <si>
-    <t>481.8 (±145.6)</t>
+    <t>462.8 (±145.6)</t>
   </si>
   <si>
     <t>1209.8 (±371.7)</t>
   </si>
   <si>
-    <t>32902.2 (±4974.0)</t>
+    <t>32916.2 (±4974.0)</t>
   </si>
   <si>
     <t>4697.4 (±1554.1)</t>
   </si>
   <si>
-    <t>1958.6 (±260.9)</t>
+    <t>1968.6 (±260.9)</t>
   </si>
   <si>
     <t>21.0 (±31.2)</t>
@@ -994,13 +994,13 @@
     <t>117.4 (±16.8)</t>
   </si>
   <si>
-    <t>70.4 (±26.2)</t>
+    <t>92.4 (±26.2)</t>
   </si>
   <si>
     <t>5209.6 (±649.7)</t>
   </si>
   <si>
-    <t>22.4 (±68.6)</t>
+    <t>23.4 (±68.6)</t>
   </si>
   <si>
     <t>20219.6 (±2693.6)</t>
@@ -1018,13 +1018,13 @@
     <t>827.0 (±88.1)</t>
   </si>
   <si>
-    <t>1451.4 (±194.8)</t>
+    <t>1442.4 (±194.8)</t>
   </si>
   <si>
     <t>28301.2 (±2821.1)</t>
   </si>
   <si>
-    <t>2211.0 (±169.5)</t>
+    <t>2212.0 (±169.5)</t>
   </si>
   <si>
     <t>21.0% (±4.5%)</t>
@@ -1045,7 +1045,7 @@
     <t>4.1% (±1.6%)</t>
   </si>
   <si>
-    <t>27.8% (±9.9%)</t>
+    <t>26.7% (±9.8%)</t>
   </si>
   <si>
     <t>13.7% (±4.6%)</t>
@@ -1057,7 +1057,7 @@
     <t>24.5% (±9.3%)</t>
   </si>
   <si>
-    <t>17.4% (±2.7%)</t>
+    <t>17.5% (±2.7%)</t>
   </si>
   <si>
     <t>5.5% (±8.0%)</t>
@@ -1078,13 +1078,13 @@
     <t>25.9% (±4.5%)</t>
   </si>
   <si>
-    <t>18.4% (±7.6%)</t>
+    <t>24.2% (±8.0%)</t>
   </si>
   <si>
     <t>20.6% (±3.0%)</t>
   </si>
   <si>
-    <t>0.3% (±0.9%)</t>
+    <t>0.3% (±0.8%)</t>
   </si>
   <si>
     <t>50.2% (±9.4%)</t>
@@ -1102,7 +1102,7 @@
     <t>19.0% (±2.3%)</t>
   </si>
   <si>
-    <t>54.6% (±10.5%)</t>
+    <t>54.3% (±10.5%)</t>
   </si>
   <si>
     <t>35.2% (±4.5%)</t>
@@ -1114,7 +1114,7 @@
     <t>3750.5(±694.6)</t>
   </si>
   <si>
-    <t>6364.7(±650.4)</t>
+    <t>6363.8(±650.4)</t>
   </si>
   <si>
     <t>4523.3(±590.5)</t>
@@ -1123,25 +1123,25 @@
     <t>6539.3(±882.8)</t>
   </si>
   <si>
-    <t>6418.5(±1019.0)</t>
+    <t>6420.1(±1019.1)</t>
   </si>
   <si>
     <t>379.7(±147.2)</t>
   </si>
   <si>
-    <t>4390.0(±1326.6)</t>
+    <t>4216.9(±1326.6)</t>
   </si>
   <si>
     <t>2345.8(±720.8)</t>
   </si>
   <si>
-    <t>3805.8(±575.4)</t>
+    <t>3807.4(±575.4)</t>
   </si>
   <si>
     <t>3757.0(±1243.0)</t>
   </si>
   <si>
-    <t>3195.9(±425.8)</t>
+    <t>3212.3(±425.7)</t>
   </si>
   <si>
     <t>963.7(±1431.9)</t>
@@ -1162,13 +1162,13 @@
     <t>4169.0(±596.6)</t>
   </si>
   <si>
-    <t>3140.1(±1168.6)</t>
+    <t>4121.3(±1168.6)</t>
   </si>
   <si>
     <t>4113.8(±513.0)</t>
   </si>
   <si>
-    <t>49.8(±152.6)</t>
+    <t>52.0(±152.6)</t>
   </si>
   <si>
     <t>8095.8(±1078.5)</t>
@@ -1186,13 +1186,13 @@
     <t>3276.2(±349.0)</t>
   </si>
   <si>
-    <t>8677.0(±1164.6)</t>
+    <t>8623.2(±1164.6)</t>
   </si>
   <si>
     <t>5268.4(±525.1)</t>
   </si>
   <si>
-    <t>2249.2(±172.4)</t>
+    <t>2250.2(±172.4)</t>
   </si>
   <si>
     <t>Age</t>
@@ -1775,7 +1775,7 @@
         <v>12549</v>
       </c>
       <c r="N3">
-        <v>13493.40000000001</v>
+        <v>13493.4</v>
       </c>
       <c r="O3">
         <v>4591.8</v>
@@ -1837,7 +1837,7 @@
         <v>6374</v>
       </c>
       <c r="I4">
-        <v>5444.999999999999</v>
+        <v>5445</v>
       </c>
       <c r="J4">
         <v>171.4</v>
@@ -1849,10 +1849,10 @@
         <v>150.2</v>
       </c>
       <c r="M4">
-        <v>5294.799999999999</v>
+        <v>5294.8</v>
       </c>
       <c r="N4">
-        <v>5595.199999999999</v>
+        <v>5595.2</v>
       </c>
       <c r="O4">
         <v>929</v>
@@ -1988,7 +1988,7 @@
         <v>9088</v>
       </c>
       <c r="H6">
-        <v>11349</v>
+        <v>11350</v>
       </c>
       <c r="I6">
         <v>8605.4</v>
@@ -2009,7 +2009,7 @@
         <v>9042.199999999999</v>
       </c>
       <c r="O6">
-        <v>2743.6</v>
+        <v>2744.6</v>
       </c>
       <c r="P6">
         <v>436.8</v>
@@ -2033,7 +2033,7 @@
         <v>45726</v>
       </c>
       <c r="W6">
-        <v>6000.1</v>
+        <v>6002.3</v>
       </c>
       <c r="X6">
         <v>955.2</v>
@@ -2068,7 +2068,7 @@
         <v>5753</v>
       </c>
       <c r="I7">
-        <v>5679.400000000002</v>
+        <v>5679.4</v>
       </c>
       <c r="J7">
         <v>72.09999999999999</v>
@@ -2080,10 +2080,10 @@
         <v>63.2</v>
       </c>
       <c r="M7">
-        <v>5616.200000000003</v>
+        <v>5616.2</v>
       </c>
       <c r="N7">
-        <v>5742.600000000002</v>
+        <v>5742.599999999999</v>
       </c>
       <c r="O7">
         <v>73.59999999999999</v>
@@ -2142,7 +2142,7 @@
         <v>1525</v>
       </c>
       <c r="H8">
-        <v>1752</v>
+        <v>1739</v>
       </c>
       <c r="I8">
         <v>1391.2</v>
@@ -2163,16 +2163,16 @@
         <v>1495.6</v>
       </c>
       <c r="O8">
-        <v>360.8</v>
+        <v>347.8</v>
       </c>
       <c r="P8">
         <v>104.4</v>
       </c>
       <c r="Q8">
-        <v>25.9</v>
+        <v>25</v>
       </c>
       <c r="R8">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S8" t="s">
         <v>60</v>
@@ -2187,10 +2187,10 @@
         <v>8999</v>
       </c>
       <c r="W8">
-        <v>4009.3</v>
+        <v>3864.9</v>
       </c>
       <c r="X8">
-        <v>1160.2</v>
+        <v>1160.1</v>
       </c>
       <c r="Y8" t="s">
         <v>144</v>
@@ -2222,7 +2222,7 @@
         <v>7167</v>
       </c>
       <c r="I9">
-        <v>6427.600000000001</v>
+        <v>6427.6</v>
       </c>
       <c r="J9">
         <v>238.3</v>
@@ -2234,10 +2234,10 @@
         <v>208.9</v>
       </c>
       <c r="M9">
-        <v>6218.700000000002</v>
+        <v>6218.700000000001</v>
       </c>
       <c r="N9">
-        <v>6636.500000000001</v>
+        <v>6636.5</v>
       </c>
       <c r="O9">
         <v>739.4</v>
@@ -2296,7 +2296,7 @@
         <v>95317</v>
       </c>
       <c r="H10">
-        <v>113507</v>
+        <v>113516</v>
       </c>
       <c r="I10">
         <v>92393.2</v>
@@ -2317,7 +2317,7 @@
         <v>95542.8</v>
       </c>
       <c r="O10">
-        <v>21113.8</v>
+        <v>21122.8</v>
       </c>
       <c r="P10">
         <v>3149.6</v>
@@ -2341,7 +2341,7 @@
         <v>637962</v>
       </c>
       <c r="W10">
-        <v>3309.6</v>
+        <v>3311</v>
       </c>
       <c r="X10">
         <v>493.7</v>
@@ -2450,7 +2450,7 @@
         <v>8419</v>
       </c>
       <c r="H12">
-        <v>9874</v>
+        <v>9883</v>
       </c>
       <c r="I12">
         <v>8378.6</v>
@@ -2471,16 +2471,16 @@
         <v>8602.200000000001</v>
       </c>
       <c r="O12">
-        <v>1495.4</v>
+        <v>1504.4</v>
       </c>
       <c r="P12">
         <v>223.6</v>
       </c>
       <c r="Q12">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="R12">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="S12" t="s">
         <v>64</v>
@@ -2495,7 +2495,7 @@
         <v>46683</v>
       </c>
       <c r="W12">
-        <v>3203.3</v>
+        <v>3222.6</v>
       </c>
       <c r="X12">
         <v>479</v>
@@ -2684,7 +2684,7 @@
         <v>32</v>
       </c>
       <c r="I15">
-        <v>29.80000000000001</v>
+        <v>29.8</v>
       </c>
       <c r="J15">
         <v>3.1</v>
@@ -2696,10 +2696,10 @@
         <v>2.7</v>
       </c>
       <c r="M15">
-        <v>27.10000000000001</v>
+        <v>27.1</v>
       </c>
       <c r="N15">
-        <v>32.50000000000001</v>
+        <v>32.5</v>
       </c>
       <c r="O15">
         <v>2.2</v>
@@ -2915,7 +2915,7 @@
         <v>403</v>
       </c>
       <c r="I18">
-        <v>301.9999999999999</v>
+        <v>302</v>
       </c>
       <c r="J18">
         <v>15.8</v>
@@ -2927,7 +2927,7 @@
         <v>13.8</v>
       </c>
       <c r="M18">
-        <v>288.1999999999999</v>
+        <v>288.2</v>
       </c>
       <c r="N18">
         <v>315.8</v>
@@ -2989,7 +2989,7 @@
         <v>257</v>
       </c>
       <c r="H19">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="I19">
         <v>249.4</v>
@@ -3010,16 +3010,16 @@
         <v>266.3</v>
       </c>
       <c r="O19">
-        <v>48.6</v>
+        <v>59.6</v>
       </c>
       <c r="P19">
         <v>16.9</v>
       </c>
       <c r="Q19">
-        <v>19.5</v>
+        <v>23.9</v>
       </c>
       <c r="R19">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="S19" t="s">
         <v>71</v>
@@ -3034,10 +3034,10 @@
         <v>1319</v>
       </c>
       <c r="W19">
-        <v>3684.6</v>
+        <v>4518.6</v>
       </c>
       <c r="X19">
-        <v>1281.3</v>
+        <v>1281.2</v>
       </c>
       <c r="Y19" t="s">
         <v>155</v>
@@ -3084,7 +3084,7 @@
         <v>17356.3</v>
       </c>
       <c r="N20">
-        <v>17904.10000000001</v>
+        <v>17904.1</v>
       </c>
       <c r="O20">
         <v>2794.8</v>
@@ -3143,10 +3143,10 @@
         <v>5420</v>
       </c>
       <c r="H21">
-        <v>5515</v>
+        <v>5516</v>
       </c>
       <c r="I21">
-        <v>5612.599999999999</v>
+        <v>5612.6</v>
       </c>
       <c r="J21">
         <v>68</v>
@@ -3158,13 +3158,13 @@
         <v>59.6</v>
       </c>
       <c r="M21">
-        <v>5552.999999999999</v>
+        <v>5553</v>
       </c>
       <c r="N21">
-        <v>5672.2</v>
+        <v>5672.200000000001</v>
       </c>
       <c r="O21">
-        <v>-97.59999999999999</v>
+        <v>-96.59999999999999</v>
       </c>
       <c r="P21">
         <v>59.6</v>
@@ -3188,10 +3188,10 @@
         <v>31795</v>
       </c>
       <c r="W21">
-        <v>-307</v>
+        <v>-303.8</v>
       </c>
       <c r="X21">
-        <v>187.5</v>
+        <v>187.4</v>
       </c>
       <c r="Y21" t="s">
         <v>157</v>
@@ -3454,7 +3454,7 @@
         <v>4655</v>
       </c>
       <c r="I25">
-        <v>3931.799999999999</v>
+        <v>3931.8</v>
       </c>
       <c r="J25">
         <v>254.3</v>
@@ -3466,10 +3466,10 @@
         <v>222.9</v>
       </c>
       <c r="M25">
-        <v>3708.899999999999</v>
+        <v>3708.9</v>
       </c>
       <c r="N25">
-        <v>4154.699999999999</v>
+        <v>4154.7</v>
       </c>
       <c r="O25">
         <v>723.2</v>
@@ -3605,7 +3605,7 @@
         <v>2243</v>
       </c>
       <c r="H27">
-        <v>3045</v>
+        <v>3039</v>
       </c>
       <c r="I27">
         <v>2029.6</v>
@@ -3626,13 +3626,13 @@
         <v>2157</v>
       </c>
       <c r="O27">
-        <v>1015.4</v>
+        <v>1009.4</v>
       </c>
       <c r="P27">
         <v>127.4</v>
       </c>
       <c r="Q27">
-        <v>50</v>
+        <v>49.7</v>
       </c>
       <c r="R27">
         <v>8.800000000000001</v>
@@ -3650,7 +3650,7 @@
         <v>13043</v>
       </c>
       <c r="W27">
-        <v>7785</v>
+        <v>7739</v>
       </c>
       <c r="X27">
         <v>976.8</v>
@@ -3759,7 +3759,7 @@
         <v>11399</v>
       </c>
       <c r="H29">
-        <v>13170</v>
+        <v>13171</v>
       </c>
       <c r="I29">
         <v>12022.2</v>
@@ -3780,16 +3780,16 @@
         <v>12205.1</v>
       </c>
       <c r="O29">
-        <v>1147.8</v>
+        <v>1148.8</v>
       </c>
       <c r="P29">
         <v>182.9</v>
       </c>
       <c r="Q29">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="R29">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="S29" t="s">
         <v>81</v>
@@ -3804,10 +3804,10 @@
         <v>68600</v>
       </c>
       <c r="W29">
-        <v>1673.2</v>
+        <v>1674.6</v>
       </c>
       <c r="X29">
-        <v>266.6</v>
+        <v>266.7</v>
       </c>
       <c r="Y29" t="s">
         <v>165</v>
@@ -3929,7 +3929,7 @@
         <v>5406</v>
       </c>
       <c r="I2">
-        <v>3972.000000000001</v>
+        <v>3972</v>
       </c>
       <c r="J2">
         <v>371.2</v>
@@ -3941,10 +3941,10 @@
         <v>325.4</v>
       </c>
       <c r="M2">
-        <v>3646.600000000001</v>
+        <v>3646.6</v>
       </c>
       <c r="N2">
-        <v>4297.400000000001</v>
+        <v>4297.4</v>
       </c>
       <c r="O2">
         <v>1434</v>
@@ -4003,7 +4003,7 @@
         <v>5972</v>
       </c>
       <c r="H3">
-        <v>8191</v>
+        <v>8190</v>
       </c>
       <c r="I3">
         <v>5633.8</v>
@@ -4024,7 +4024,7 @@
         <v>5918.1</v>
       </c>
       <c r="O3">
-        <v>2557.2</v>
+        <v>2556.2</v>
       </c>
       <c r="P3">
         <v>284.3</v>
@@ -4048,10 +4048,10 @@
         <v>30894</v>
       </c>
       <c r="W3">
-        <v>8277.299999999999</v>
+        <v>8274.1</v>
       </c>
       <c r="X3">
-        <v>920.3</v>
+        <v>920.2</v>
       </c>
       <c r="Y3" t="s">
         <v>252</v>
@@ -4388,10 +4388,10 @@
         <v>397</v>
       </c>
       <c r="H8">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="I8">
-        <v>344.9999999999999</v>
+        <v>345</v>
       </c>
       <c r="J8">
         <v>48.3</v>
@@ -4403,22 +4403,22 @@
         <v>42.3</v>
       </c>
       <c r="M8">
-        <v>302.6999999999999</v>
+        <v>302.7</v>
       </c>
       <c r="N8">
         <v>387.3</v>
       </c>
       <c r="O8">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="P8">
         <v>42.3</v>
       </c>
       <c r="Q8">
-        <v>35.1</v>
+        <v>33.3</v>
       </c>
       <c r="R8">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="S8" t="s">
         <v>173</v>
@@ -4433,7 +4433,7 @@
         <v>1976</v>
       </c>
       <c r="W8">
-        <v>6123.5</v>
+        <v>5819.8</v>
       </c>
       <c r="X8">
         <v>2140.7</v>
@@ -4542,10 +4542,10 @@
         <v>43449</v>
       </c>
       <c r="H10">
-        <v>53585</v>
+        <v>53590</v>
       </c>
       <c r="I10">
-        <v>41796.60000000001</v>
+        <v>41796.6</v>
       </c>
       <c r="J10">
         <v>2084.9</v>
@@ -4557,13 +4557,13 @@
         <v>1827.5</v>
       </c>
       <c r="M10">
-        <v>39969.10000000001</v>
+        <v>39969.1</v>
       </c>
       <c r="N10">
-        <v>43624.10000000001</v>
+        <v>43624.1</v>
       </c>
       <c r="O10">
-        <v>11788.4</v>
+        <v>11793.4</v>
       </c>
       <c r="P10">
         <v>1827.5</v>
@@ -4587,7 +4587,7 @@
         <v>226564</v>
       </c>
       <c r="W10">
-        <v>5203.1</v>
+        <v>5205.3</v>
       </c>
       <c r="X10">
         <v>806.6</v>
@@ -4622,7 +4622,7 @@
         <v>8643</v>
       </c>
       <c r="I11">
-        <v>6846.199999999999</v>
+        <v>6846.2</v>
       </c>
       <c r="J11">
         <v>679.5</v>
@@ -4637,7 +4637,7 @@
         <v>6250.599999999999</v>
       </c>
       <c r="N11">
-        <v>7441.799999999999</v>
+        <v>7441.8</v>
       </c>
       <c r="O11">
         <v>1796.8</v>
@@ -4696,7 +4696,7 @@
         <v>2860</v>
       </c>
       <c r="H12">
-        <v>3354</v>
+        <v>3355</v>
       </c>
       <c r="I12">
         <v>2890.8</v>
@@ -4717,16 +4717,16 @@
         <v>2935</v>
       </c>
       <c r="O12">
-        <v>463.2</v>
+        <v>464.2</v>
       </c>
       <c r="P12">
         <v>44.2</v>
       </c>
       <c r="Q12">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="R12">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S12" t="s">
         <v>177</v>
@@ -4741,10 +4741,10 @@
         <v>14601</v>
       </c>
       <c r="W12">
-        <v>3172.4</v>
+        <v>3179.2</v>
       </c>
       <c r="X12">
-        <v>302.7</v>
+        <v>302.8</v>
       </c>
       <c r="Y12" t="s">
         <v>261</v>
@@ -4853,7 +4853,7 @@
         <v>695</v>
       </c>
       <c r="I14">
-        <v>496.5999999999999</v>
+        <v>496.6</v>
       </c>
       <c r="J14">
         <v>62</v>
@@ -4865,10 +4865,10 @@
         <v>54.3</v>
       </c>
       <c r="M14">
-        <v>442.2999999999998</v>
+        <v>442.3</v>
       </c>
       <c r="N14">
-        <v>550.8999999999999</v>
+        <v>550.9</v>
       </c>
       <c r="O14">
         <v>198.4</v>
@@ -4942,7 +4942,7 @@
         <v>2.4</v>
       </c>
       <c r="M15">
-        <v>8.200000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="N15">
         <v>13</v>
@@ -5007,7 +5007,7 @@
         <v>1164</v>
       </c>
       <c r="I16">
-        <v>888.1999999999998</v>
+        <v>888.2</v>
       </c>
       <c r="J16">
         <v>76.8</v>
@@ -5019,10 +5019,10 @@
         <v>67.3</v>
       </c>
       <c r="M16">
-        <v>820.8999999999999</v>
+        <v>820.9000000000001</v>
       </c>
       <c r="N16">
-        <v>955.4999999999998</v>
+        <v>955.5</v>
       </c>
       <c r="O16">
         <v>275.8</v>
@@ -5235,7 +5235,7 @@
         <v>145</v>
       </c>
       <c r="H19">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="I19">
         <v>132.2</v>
@@ -5256,16 +5256,16 @@
         <v>146.6</v>
       </c>
       <c r="O19">
-        <v>21.8</v>
+        <v>32.8</v>
       </c>
       <c r="P19">
         <v>14.4</v>
       </c>
       <c r="Q19">
-        <v>16.5</v>
+        <v>24.8</v>
       </c>
       <c r="R19">
-        <v>11.5</v>
+        <v>12.2</v>
       </c>
       <c r="S19" t="s">
         <v>184</v>
@@ -5280,10 +5280,10 @@
         <v>923</v>
       </c>
       <c r="W19">
-        <v>2361.9</v>
+        <v>3553.6</v>
       </c>
       <c r="X19">
-        <v>1560.1</v>
+        <v>1560.2</v>
       </c>
       <c r="Y19" t="s">
         <v>268</v>
@@ -5315,7 +5315,7 @@
         <v>10015</v>
       </c>
       <c r="I20">
-        <v>7600.200000000001</v>
+        <v>7600.2</v>
       </c>
       <c r="J20">
         <v>447.1</v>
@@ -5327,10 +5327,10 @@
         <v>391.9</v>
       </c>
       <c r="M20">
-        <v>7208.300000000001</v>
+        <v>7208.3</v>
       </c>
       <c r="N20">
-        <v>7992.1</v>
+        <v>7992.099999999999</v>
       </c>
       <c r="O20">
         <v>2414.8</v>
@@ -5404,7 +5404,7 @@
         <v>67.90000000000001</v>
       </c>
       <c r="M21">
-        <v>2505.099999999999</v>
+        <v>2505.1</v>
       </c>
       <c r="N21">
         <v>2640.9</v>
@@ -5546,7 +5546,7 @@
         <v>7314</v>
       </c>
       <c r="I23">
-        <v>5599.599999999999</v>
+        <v>5599.6</v>
       </c>
       <c r="J23">
         <v>415.7</v>
@@ -5558,10 +5558,10 @@
         <v>364.4</v>
       </c>
       <c r="M23">
-        <v>5235.2</v>
+        <v>5235.200000000001</v>
       </c>
       <c r="N23">
-        <v>5963.999999999999</v>
+        <v>5964</v>
       </c>
       <c r="O23">
         <v>1714.4</v>
@@ -5623,7 +5623,7 @@
         <v>8461</v>
       </c>
       <c r="I24">
-        <v>6203.799999999997</v>
+        <v>6203.8</v>
       </c>
       <c r="J24">
         <v>359.8</v>
@@ -5635,10 +5635,10 @@
         <v>315.4</v>
       </c>
       <c r="M24">
-        <v>5888.399999999998</v>
+        <v>5888.400000000001</v>
       </c>
       <c r="N24">
-        <v>6519.199999999997</v>
+        <v>6519.2</v>
       </c>
       <c r="O24">
         <v>2257.2</v>
@@ -5851,7 +5851,7 @@
         <v>712</v>
       </c>
       <c r="H27">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="I27">
         <v>627</v>
@@ -5872,13 +5872,13 @@
         <v>700.5</v>
       </c>
       <c r="O27">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="P27">
         <v>73.5</v>
       </c>
       <c r="Q27">
-        <v>69.5</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="R27">
         <v>17.8</v>
@@ -5896,7 +5896,7 @@
         <v>3684</v>
       </c>
       <c r="W27">
-        <v>11835</v>
+        <v>11753.5</v>
       </c>
       <c r="X27">
         <v>1995.1</v>
@@ -5931,7 +5931,7 @@
         <v>35968</v>
       </c>
       <c r="I28">
-        <v>25837.59999999999</v>
+        <v>25837.6</v>
       </c>
       <c r="J28">
         <v>1349.7</v>
@@ -5946,7 +5946,7 @@
         <v>24654.5</v>
       </c>
       <c r="N28">
-        <v>27020.69999999999</v>
+        <v>27020.7</v>
       </c>
       <c r="O28">
         <v>10130.4</v>
@@ -6008,7 +6008,7 @@
         <v>7199</v>
       </c>
       <c r="I29">
-        <v>6135.800000000001</v>
+        <v>6135.8</v>
       </c>
       <c r="J29">
         <v>60.1</v>
@@ -6020,10 +6020,10 @@
         <v>52.7</v>
       </c>
       <c r="M29">
-        <v>6083.100000000001</v>
+        <v>6083.1</v>
       </c>
       <c r="N29">
-        <v>6188.500000000001</v>
+        <v>6188.5</v>
       </c>
       <c r="O29">
         <v>1063.2</v>
@@ -6249,7 +6249,7 @@
         <v>19398</v>
       </c>
       <c r="H3">
-        <v>25804</v>
+        <v>25803</v>
       </c>
       <c r="I3">
         <v>18655</v>
@@ -6270,7 +6270,7 @@
         <v>19385.5</v>
       </c>
       <c r="O3">
-        <v>7149</v>
+        <v>7148</v>
       </c>
       <c r="P3">
         <v>730.5</v>
@@ -6294,7 +6294,7 @@
         <v>112322</v>
       </c>
       <c r="W3">
-        <v>6364.7</v>
+        <v>6363.8</v>
       </c>
       <c r="X3">
         <v>650.4</v>
@@ -6329,7 +6329,7 @@
         <v>9746</v>
       </c>
       <c r="I4">
-        <v>8136.600000000001</v>
+        <v>8136.6</v>
       </c>
       <c r="J4">
         <v>239.7</v>
@@ -6341,7 +6341,7 @@
         <v>210.1</v>
       </c>
       <c r="M4">
-        <v>7926.500000000001</v>
+        <v>7926.5</v>
       </c>
       <c r="N4">
         <v>8346.700000000001</v>
@@ -6406,7 +6406,7 @@
         <v>6131</v>
       </c>
       <c r="I5">
-        <v>4666.599999999999</v>
+        <v>4666.6</v>
       </c>
       <c r="J5">
         <v>225.5</v>
@@ -6418,10 +6418,10 @@
         <v>197.7</v>
       </c>
       <c r="M5">
-        <v>4468.899999999999</v>
+        <v>4468.900000000001</v>
       </c>
       <c r="N5">
-        <v>4864.299999999998</v>
+        <v>4864.3</v>
       </c>
       <c r="O5">
         <v>1464.4</v>
@@ -6480,7 +6480,7 @@
         <v>12677</v>
       </c>
       <c r="H6">
-        <v>15844</v>
+        <v>15845</v>
       </c>
       <c r="I6">
         <v>11896.2</v>
@@ -6501,7 +6501,7 @@
         <v>12523</v>
       </c>
       <c r="O6">
-        <v>3947.8</v>
+        <v>3948.8</v>
       </c>
       <c r="P6">
         <v>626.8</v>
@@ -6525,10 +6525,10 @@
         <v>61507</v>
       </c>
       <c r="W6">
-        <v>6418.5</v>
+        <v>6420.1</v>
       </c>
       <c r="X6">
-        <v>1019</v>
+        <v>1019.1</v>
       </c>
       <c r="Y6" t="s">
         <v>368</v>
@@ -6560,7 +6560,7 @@
         <v>8649</v>
       </c>
       <c r="I7">
-        <v>8308.400000000001</v>
+        <v>8308.4</v>
       </c>
       <c r="J7">
         <v>150.6</v>
@@ -6572,10 +6572,10 @@
         <v>132</v>
       </c>
       <c r="M7">
-        <v>8176.400000000001</v>
+        <v>8176.4</v>
       </c>
       <c r="N7">
-        <v>8440.400000000001</v>
+        <v>8440.4</v>
       </c>
       <c r="O7">
         <v>340.6</v>
@@ -6634,7 +6634,7 @@
         <v>1922</v>
       </c>
       <c r="H8">
-        <v>2218</v>
+        <v>2199</v>
       </c>
       <c r="I8">
         <v>1736.2</v>
@@ -6655,16 +6655,16 @@
         <v>1881.8</v>
       </c>
       <c r="O8">
-        <v>481.8</v>
+        <v>462.8</v>
       </c>
       <c r="P8">
         <v>145.6</v>
       </c>
       <c r="Q8">
-        <v>27.8</v>
+        <v>26.7</v>
       </c>
       <c r="R8">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S8" t="s">
         <v>286</v>
@@ -6679,7 +6679,7 @@
         <v>10975</v>
       </c>
       <c r="W8">
-        <v>4390</v>
+        <v>4216.9</v>
       </c>
       <c r="X8">
         <v>1326.6</v>
@@ -6714,7 +6714,7 @@
         <v>10070</v>
       </c>
       <c r="I9">
-        <v>8860.199999999999</v>
+        <v>8860.200000000001</v>
       </c>
       <c r="J9">
         <v>424.1</v>
@@ -6726,10 +6726,10 @@
         <v>371.7</v>
       </c>
       <c r="M9">
-        <v>8488.499999999998</v>
+        <v>8488.5</v>
       </c>
       <c r="N9">
-        <v>9231.9</v>
+        <v>9231.900000000001</v>
       </c>
       <c r="O9">
         <v>1209.8</v>
@@ -6788,7 +6788,7 @@
         <v>138766</v>
       </c>
       <c r="H10">
-        <v>167092</v>
+        <v>167106</v>
       </c>
       <c r="I10">
         <v>134189.8</v>
@@ -6809,7 +6809,7 @@
         <v>139163.8</v>
       </c>
       <c r="O10">
-        <v>32902.2</v>
+        <v>32916.2</v>
       </c>
       <c r="P10">
         <v>4974</v>
@@ -6833,7 +6833,7 @@
         <v>864526</v>
       </c>
       <c r="W10">
-        <v>3805.8</v>
+        <v>3807.4</v>
       </c>
       <c r="X10">
         <v>575.4</v>
@@ -6868,7 +6868,7 @@
         <v>23842</v>
       </c>
       <c r="I11">
-        <v>19144.59999999999</v>
+        <v>19144.6</v>
       </c>
       <c r="J11">
         <v>1773</v>
@@ -6883,7 +6883,7 @@
         <v>17590.5</v>
       </c>
       <c r="N11">
-        <v>20698.69999999999</v>
+        <v>20698.7</v>
       </c>
       <c r="O11">
         <v>4697.4</v>
@@ -6942,7 +6942,7 @@
         <v>11279</v>
       </c>
       <c r="H12">
-        <v>13228</v>
+        <v>13238</v>
       </c>
       <c r="I12">
         <v>11269.4</v>
@@ -6963,13 +6963,13 @@
         <v>11530.3</v>
       </c>
       <c r="O12">
-        <v>1958.6</v>
+        <v>1968.6</v>
       </c>
       <c r="P12">
         <v>260.9</v>
       </c>
       <c r="Q12">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="R12">
         <v>2.7</v>
@@ -6987,10 +6987,10 @@
         <v>61284</v>
       </c>
       <c r="W12">
-        <v>3195.9</v>
+        <v>3212.3</v>
       </c>
       <c r="X12">
-        <v>425.8</v>
+        <v>425.7</v>
       </c>
       <c r="Y12" t="s">
         <v>374</v>
@@ -7253,7 +7253,7 @@
         <v>5087</v>
       </c>
       <c r="I16">
-        <v>4024.399999999999</v>
+        <v>4024.4</v>
       </c>
       <c r="J16">
         <v>212.9</v>
@@ -7265,10 +7265,10 @@
         <v>186.6</v>
       </c>
       <c r="M16">
-        <v>3837.799999999999</v>
+        <v>3837.8</v>
       </c>
       <c r="N16">
-        <v>4210.999999999999</v>
+        <v>4211</v>
       </c>
       <c r="O16">
         <v>1062.6</v>
@@ -7481,7 +7481,7 @@
         <v>402</v>
       </c>
       <c r="H19">
-        <v>452</v>
+        <v>474</v>
       </c>
       <c r="I19">
         <v>381.6</v>
@@ -7502,16 +7502,16 @@
         <v>407.8</v>
       </c>
       <c r="O19">
-        <v>70.40000000000001</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="P19">
         <v>26.2</v>
       </c>
       <c r="Q19">
-        <v>18.4</v>
+        <v>24.2</v>
       </c>
       <c r="R19">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="S19" t="s">
         <v>297</v>
@@ -7526,7 +7526,7 @@
         <v>2242</v>
       </c>
       <c r="W19">
-        <v>3140.1</v>
+        <v>4121.3</v>
       </c>
       <c r="X19">
         <v>1168.6</v>
@@ -7561,7 +7561,7 @@
         <v>30440</v>
       </c>
       <c r="I20">
-        <v>25230.40000000001</v>
+        <v>25230.4</v>
       </c>
       <c r="J20">
         <v>741.2</v>
@@ -7576,7 +7576,7 @@
         <v>24580.7</v>
       </c>
       <c r="N20">
-        <v>25880.10000000001</v>
+        <v>25880.1</v>
       </c>
       <c r="O20">
         <v>5209.6</v>
@@ -7635,10 +7635,10 @@
         <v>8094</v>
       </c>
       <c r="H21">
-        <v>8208</v>
+        <v>8209</v>
       </c>
       <c r="I21">
-        <v>8185.600000000001</v>
+        <v>8185.6</v>
       </c>
       <c r="J21">
         <v>78.3</v>
@@ -7650,13 +7650,13 @@
         <v>68.59999999999999</v>
       </c>
       <c r="M21">
-        <v>8117.000000000001</v>
+        <v>8117</v>
       </c>
       <c r="N21">
         <v>8254.200000000001</v>
       </c>
       <c r="O21">
-        <v>22.4</v>
+        <v>23.4</v>
       </c>
       <c r="P21">
         <v>68.59999999999999</v>
@@ -7665,7 +7665,7 @@
         <v>0.3</v>
       </c>
       <c r="R21">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="S21" t="s">
         <v>299</v>
@@ -7680,7 +7680,7 @@
         <v>44968</v>
       </c>
       <c r="W21">
-        <v>49.8</v>
+        <v>52</v>
       </c>
       <c r="X21">
         <v>152.6</v>
@@ -7715,7 +7715,7 @@
         <v>60502</v>
       </c>
       <c r="I22">
-        <v>40282.39999999999</v>
+        <v>40282.4</v>
       </c>
       <c r="J22">
         <v>3073</v>
@@ -7730,7 +7730,7 @@
         <v>37588.8</v>
       </c>
       <c r="N22">
-        <v>42975.99999999999</v>
+        <v>42976</v>
       </c>
       <c r="O22">
         <v>20219.6</v>
@@ -7946,7 +7946,7 @@
         <v>7246</v>
       </c>
       <c r="I25">
-        <v>5856.599999999998</v>
+        <v>5856.599999999999</v>
       </c>
       <c r="J25">
         <v>386.3</v>
@@ -7958,10 +7958,10 @@
         <v>338.6</v>
       </c>
       <c r="M25">
-        <v>5517.999999999997</v>
+        <v>5517.999999999999</v>
       </c>
       <c r="N25">
-        <v>6195.199999999998</v>
+        <v>6195.2</v>
       </c>
       <c r="O25">
         <v>1389.4</v>
@@ -8023,7 +8023,7 @@
         <v>5176</v>
       </c>
       <c r="I26">
-        <v>4349.000000000001</v>
+        <v>4349</v>
       </c>
       <c r="J26">
         <v>100.5</v>
@@ -8035,10 +8035,10 @@
         <v>88.09999999999999</v>
       </c>
       <c r="M26">
-        <v>4260.900000000001</v>
+        <v>4260.9</v>
       </c>
       <c r="N26">
-        <v>4437.100000000001</v>
+        <v>4437.1</v>
       </c>
       <c r="O26">
         <v>827</v>
@@ -8097,10 +8097,10 @@
         <v>2955</v>
       </c>
       <c r="H27">
-        <v>4108</v>
+        <v>4099</v>
       </c>
       <c r="I27">
-        <v>2656.600000000001</v>
+        <v>2656.6</v>
       </c>
       <c r="J27">
         <v>222.2</v>
@@ -8112,19 +8112,19 @@
         <v>194.8</v>
       </c>
       <c r="M27">
-        <v>2461.800000000001</v>
+        <v>2461.8</v>
       </c>
       <c r="N27">
-        <v>2851.400000000001</v>
+        <v>2851.4</v>
       </c>
       <c r="O27">
-        <v>1451.4</v>
+        <v>1442.4</v>
       </c>
       <c r="P27">
         <v>194.8</v>
       </c>
       <c r="Q27">
-        <v>54.6</v>
+        <v>54.3</v>
       </c>
       <c r="R27">
         <v>10.5</v>
@@ -8142,7 +8142,7 @@
         <v>16727</v>
       </c>
       <c r="W27">
-        <v>8677</v>
+        <v>8623.200000000001</v>
       </c>
       <c r="X27">
         <v>1164.6</v>
@@ -8177,7 +8177,7 @@
         <v>108596</v>
       </c>
       <c r="I28">
-        <v>80294.79999999999</v>
+        <v>80294.8</v>
       </c>
       <c r="J28">
         <v>3218.4</v>
@@ -8189,10 +8189,10 @@
         <v>2821.1</v>
       </c>
       <c r="M28">
-        <v>77473.69999999998</v>
+        <v>77473.7</v>
       </c>
       <c r="N28">
-        <v>83115.89999999999</v>
+        <v>83115.90000000001</v>
       </c>
       <c r="O28">
         <v>28301.2</v>
@@ -8251,7 +8251,7 @@
         <v>17408</v>
       </c>
       <c r="H29">
-        <v>20369</v>
+        <v>20370</v>
       </c>
       <c r="I29">
         <v>18158</v>
@@ -8272,7 +8272,7 @@
         <v>18327.5</v>
       </c>
       <c r="O29">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="P29">
         <v>169.5</v>
@@ -8296,7 +8296,7 @@
         <v>98303</v>
       </c>
       <c r="W29">
-        <v>2249.2</v>
+        <v>2250.2</v>
       </c>
       <c r="X29">
         <v>172.4</v>
